--- a/IntermediateData/Features_Analysis_MICRO.xlsx
+++ b/IntermediateData/Features_Analysis_MICRO.xlsx
@@ -4110,10 +4110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B302" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4166,7 +4167,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -4734,7 +4735,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4800,7 +4801,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -4966,7 +4967,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +5001,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -5066,7 +5067,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -5132,7 +5133,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -5200,7 +5201,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -5268,7 +5269,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -5370,7 +5371,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -5404,7 +5405,7 @@
       </c>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -5472,7 +5473,7 @@
       </c>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -5506,7 +5507,7 @@
       </c>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -5540,7 +5541,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -5602,7 +5603,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -5632,7 +5633,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -5662,7 +5663,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -5692,7 +5693,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -5722,7 +5723,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -5752,7 +5753,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -5782,7 +5783,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -5812,7 +5813,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -5842,7 +5843,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -5872,7 +5873,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -5902,7 +5903,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -5932,7 +5933,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -6022,7 +6023,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -6054,7 +6055,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -6084,7 +6085,7 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -6116,7 +6117,7 @@
       </c>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -6146,7 +6147,7 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -6180,7 +6181,7 @@
       </c>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -6214,7 +6215,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -6244,7 +6245,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -6274,7 +6275,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -6304,7 +6305,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -6334,7 +6335,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -6364,7 +6365,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -6554,7 +6555,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -6584,7 +6585,7 @@
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -6614,7 +6615,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -6644,7 +6645,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -6674,7 +6675,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -6704,7 +6705,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -6734,7 +6735,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -6762,7 +6763,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -6790,7 +6791,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -6818,7 +6819,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -6874,7 +6875,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -6902,7 +6903,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -6930,7 +6931,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -6958,7 +6959,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -6986,7 +6987,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -7014,7 +7015,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -7044,7 +7045,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -7074,7 +7075,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -7102,7 +7103,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -7130,7 +7131,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -7158,7 +7159,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7187,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -7214,7 +7215,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -7242,7 +7243,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -7270,7 +7271,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -7370,7 +7371,7 @@
       </c>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -7402,7 +7403,7 @@
       </c>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -7504,7 +7505,7 @@
       </c>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -7534,7 +7535,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -7564,7 +7565,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -7598,7 +7599,7 @@
       </c>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -7628,7 +7629,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -7658,7 +7659,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -7690,7 +7691,7 @@
       </c>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -7722,7 +7723,7 @@
       </c>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -7954,7 +7955,7 @@
       </c>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -7984,7 +7985,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -8014,7 +8015,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -8044,7 +8045,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -8074,7 +8075,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -8104,7 +8105,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -8134,7 +8135,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -8164,7 +8165,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -8194,7 +8195,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -8224,7 +8225,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -8254,7 +8255,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -8284,7 +8285,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -8314,7 +8315,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -8344,7 +8345,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -8374,7 +8375,7 @@
       </c>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -8404,7 +8405,7 @@
       </c>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -8434,7 +8435,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -8464,7 +8465,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -8494,7 +8495,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -8524,7 +8525,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -8744,7 +8745,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -8774,7 +8775,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -8804,7 +8805,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -8834,7 +8835,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -8864,7 +8865,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -8894,7 +8895,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -8924,7 +8925,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -8954,7 +8955,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -8984,7 +8985,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -9014,7 +9015,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -9044,7 +9045,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -9074,7 +9075,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -9104,7 +9105,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -9134,7 +9135,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -9164,7 +9165,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -9226,7 +9227,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -9256,7 +9257,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -9286,7 +9287,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -9316,7 +9317,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -9346,7 +9347,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -9376,7 +9377,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -9436,7 +9437,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -9466,7 +9467,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -9496,7 +9497,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -9526,7 +9527,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -9556,7 +9557,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -9586,7 +9587,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -9616,7 +9617,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -9646,7 +9647,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
@@ -9712,7 +9713,7 @@
       </c>
       <c r="K179" s="8"/>
     </row>
-    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
@@ -9744,7 +9745,7 @@
       </c>
       <c r="K180" s="8"/>
     </row>
-    <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>179</v>
       </c>
@@ -9778,7 +9779,7 @@
       </c>
       <c r="K181" s="8"/>
     </row>
-    <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -9808,7 +9809,7 @@
       </c>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -9866,7 +9867,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -9924,7 +9925,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -9988,7 +9989,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -10600,7 +10601,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -10838,7 +10839,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -11076,7 +11077,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -11478,7 +11479,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -11506,7 +11507,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -11534,7 +11535,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -11562,7 +11563,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -11590,7 +11591,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -11618,7 +11619,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -11674,7 +11675,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -11702,7 +11703,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -11730,7 +11731,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
@@ -11764,7 +11765,7 @@
       </c>
       <c r="K242" s="8"/>
     </row>
-    <row r="243" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
@@ -11798,7 +11799,7 @@
       </c>
       <c r="K243" s="8"/>
     </row>
-    <row r="244" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
@@ -11832,7 +11833,7 @@
       </c>
       <c r="K244" s="8"/>
     </row>
-    <row r="245" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
@@ -11866,7 +11867,7 @@
       </c>
       <c r="K245" s="8"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -11986,7 +11987,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -12014,7 +12015,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -12042,7 +12043,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -12070,7 +12071,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -13598,7 +13599,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -13628,7 +13629,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>303</v>
       </c>
@@ -13658,7 +13659,7 @@
       </c>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
@@ -13692,7 +13693,7 @@
       </c>
       <c r="K306" s="8"/>
     </row>
-    <row r="307" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -13722,7 +13723,7 @@
       </c>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -13752,7 +13753,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>307</v>
       </c>
@@ -13782,7 +13783,7 @@
       </c>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
@@ -13816,7 +13817,7 @@
       </c>
       <c r="K310" s="8"/>
     </row>
-    <row r="311" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -13846,7 +13847,7 @@
       </c>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -13876,7 +13877,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -13906,7 +13907,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -13936,7 +13937,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -13966,7 +13967,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -13996,7 +13997,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -14026,7 +14027,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>316</v>
       </c>
@@ -14056,7 +14057,7 @@
       </c>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
         <v>317</v>
       </c>
@@ -14088,7 +14089,7 @@
       </c>
       <c r="K319" s="8"/>
     </row>
-    <row r="320" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
@@ -14116,7 +14117,7 @@
       </c>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -14144,7 +14145,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -14172,7 +14173,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -14200,7 +14201,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -14228,7 +14229,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -14284,7 +14285,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -14312,7 +14313,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -14340,7 +14341,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -14368,7 +14369,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -14396,7 +14397,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -14424,7 +14425,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -14452,7 +14453,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -14480,7 +14481,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -14508,7 +14509,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -14536,7 +14537,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -14564,7 +14565,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -14592,7 +14593,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -14620,7 +14621,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -14648,7 +14649,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -14704,7 +14705,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -14732,7 +14733,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -14760,7 +14761,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -14788,7 +14789,7 @@
       </c>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -14816,7 +14817,7 @@
       </c>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -14844,7 +14845,7 @@
       </c>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -14872,7 +14873,7 @@
       </c>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -14900,7 +14901,7 @@
       </c>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -14928,7 +14929,7 @@
       </c>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -14956,7 +14957,7 @@
       </c>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -14984,7 +14985,7 @@
       </c>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -15012,7 +15013,7 @@
       </c>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -15040,7 +15041,7 @@
       </c>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -15068,7 +15069,7 @@
       </c>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -15124,7 +15125,7 @@
       </c>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -15152,7 +15153,7 @@
       </c>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -15180,7 +15181,7 @@
       </c>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -15208,7 +15209,7 @@
       </c>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -15236,7 +15237,7 @@
       </c>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -15264,7 +15265,7 @@
       </c>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -15292,7 +15293,7 @@
       </c>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -15320,7 +15321,7 @@
       </c>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -15348,7 +15349,7 @@
       </c>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -15376,7 +15377,7 @@
       </c>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -15404,7 +15405,7 @@
       </c>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -15432,7 +15433,7 @@
       </c>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -15460,7 +15461,7 @@
       </c>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -15488,7 +15489,7 @@
       </c>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -15544,7 +15545,7 @@
       </c>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -15572,7 +15573,7 @@
       </c>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -15600,7 +15601,7 @@
       </c>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -15628,7 +15629,7 @@
       </c>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -15656,7 +15657,7 @@
       </c>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -15684,7 +15685,7 @@
       </c>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -15712,7 +15713,7 @@
       </c>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -15740,7 +15741,7 @@
       </c>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -15768,7 +15769,7 @@
       </c>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -15796,7 +15797,7 @@
       </c>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -15824,7 +15825,7 @@
       </c>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -15852,7 +15853,7 @@
       </c>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -15880,7 +15881,7 @@
       </c>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -15908,7 +15909,7 @@
       </c>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -15964,7 +15965,7 @@
       </c>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -15992,7 +15993,7 @@
       </c>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -16020,7 +16021,7 @@
       </c>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -16048,7 +16049,7 @@
       </c>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -16076,7 +16077,7 @@
       </c>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -16104,7 +16105,7 @@
       </c>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -16132,7 +16133,7 @@
       </c>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -16160,7 +16161,7 @@
       </c>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -16188,7 +16189,7 @@
       </c>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -16216,7 +16217,7 @@
       </c>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -16244,7 +16245,7 @@
       </c>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -16272,7 +16273,7 @@
       </c>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -16300,7 +16301,7 @@
       </c>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -16328,7 +16329,7 @@
       </c>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -16384,7 +16385,7 @@
       </c>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
@@ -16412,7 +16413,7 @@
       </c>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
@@ -16440,7 +16441,7 @@
       </c>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
@@ -16468,7 +16469,7 @@
       </c>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
@@ -16496,7 +16497,7 @@
       </c>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
@@ -16524,7 +16525,7 @@
       </c>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
@@ -16552,7 +16553,7 @@
       </c>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
@@ -16580,7 +16581,7 @@
       </c>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
@@ -16608,7 +16609,7 @@
       </c>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
@@ -16636,7 +16637,7 @@
       </c>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -16664,7 +16665,7 @@
       </c>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
@@ -16692,7 +16693,7 @@
       </c>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
@@ -16720,7 +16721,7 @@
       </c>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
@@ -16748,7 +16749,7 @@
       </c>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
@@ -16804,7 +16805,7 @@
       </c>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
@@ -16832,7 +16833,7 @@
       </c>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -16860,7 +16861,7 @@
       </c>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
@@ -16888,7 +16889,7 @@
       </c>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
@@ -16916,7 +16917,7 @@
       </c>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
@@ -16944,7 +16945,7 @@
       </c>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
@@ -16972,7 +16973,7 @@
       </c>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
@@ -17000,7 +17001,7 @@
       </c>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
@@ -17028,7 +17029,7 @@
       </c>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -17056,7 +17057,7 @@
       </c>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -17084,7 +17085,7 @@
       </c>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
@@ -17112,7 +17113,7 @@
       </c>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
@@ -17140,7 +17141,7 @@
       </c>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
@@ -17168,7 +17169,7 @@
       </c>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
@@ -17224,7 +17225,7 @@
       </c>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
@@ -17252,7 +17253,7 @@
       </c>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
@@ -17312,7 +17313,7 @@
       </c>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
@@ -17340,7 +17341,7 @@
       </c>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
@@ -17368,7 +17369,7 @@
       </c>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>435</v>
       </c>
@@ -17396,7 +17397,7 @@
       </c>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>436</v>
       </c>
@@ -17424,7 +17425,7 @@
       </c>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>437</v>
       </c>
@@ -17452,7 +17453,7 @@
       </c>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>438</v>
       </c>
@@ -17480,7 +17481,7 @@
       </c>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>439</v>
       </c>
@@ -17508,7 +17509,7 @@
       </c>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>440</v>
       </c>
@@ -17536,7 +17537,7 @@
       </c>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
@@ -17564,7 +17565,7 @@
       </c>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>442</v>
       </c>
@@ -17592,7 +17593,7 @@
       </c>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>443</v>
       </c>
@@ -17620,7 +17621,7 @@
       </c>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>444</v>
       </c>
@@ -17648,7 +17649,7 @@
       </c>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>446</v>
       </c>
@@ -17704,7 +17705,7 @@
       </c>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>447</v>
       </c>
@@ -17732,7 +17733,7 @@
       </c>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>448</v>
       </c>
@@ -17760,7 +17761,7 @@
       </c>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>449</v>
       </c>
@@ -17788,7 +17789,7 @@
       </c>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>450</v>
       </c>
@@ -17816,7 +17817,7 @@
       </c>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>451</v>
       </c>
@@ -17844,7 +17845,7 @@
       </c>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>452</v>
       </c>
@@ -17872,7 +17873,7 @@
       </c>
       <c r="K454" s="1"/>
     </row>
-    <row r="455" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>453</v>
       </c>
@@ -17900,7 +17901,7 @@
       </c>
       <c r="K455" s="1"/>
     </row>
-    <row r="456" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>454</v>
       </c>
@@ -17928,7 +17929,7 @@
       </c>
       <c r="K456" s="1"/>
     </row>
-    <row r="457" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>455</v>
       </c>
@@ -17956,7 +17957,7 @@
       </c>
       <c r="K457" s="1"/>
     </row>
-    <row r="458" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>456</v>
       </c>
@@ -17984,7 +17985,7 @@
       </c>
       <c r="K458" s="1"/>
     </row>
-    <row r="459" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>457</v>
       </c>
@@ -18012,7 +18013,7 @@
       </c>
       <c r="K459" s="1"/>
     </row>
-    <row r="460" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>458</v>
       </c>
@@ -18040,7 +18041,7 @@
       </c>
       <c r="K460" s="1"/>
     </row>
-    <row r="461" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>459</v>
       </c>
@@ -18068,7 +18069,7 @@
       </c>
       <c r="K461" s="1"/>
     </row>
-    <row r="462" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>460</v>
       </c>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="K462" s="1"/>
     </row>
-    <row r="463" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>461</v>
       </c>
@@ -18124,7 +18125,7 @@
       </c>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>462</v>
       </c>
@@ -18152,7 +18153,7 @@
       </c>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>463</v>
       </c>
@@ -18180,7 +18181,7 @@
       </c>
       <c r="K465" s="1"/>
     </row>
-    <row r="466" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>464</v>
       </c>
@@ -18208,7 +18209,7 @@
       </c>
       <c r="K466" s="1"/>
     </row>
-    <row r="467" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>465</v>
       </c>
@@ -18236,7 +18237,7 @@
       </c>
       <c r="K467" s="1"/>
     </row>
-    <row r="468" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>466</v>
       </c>
@@ -18264,7 +18265,7 @@
       </c>
       <c r="K468" s="1"/>
     </row>
-    <row r="469" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>467</v>
       </c>
@@ -18292,7 +18293,7 @@
       </c>
       <c r="K469" s="1"/>
     </row>
-    <row r="470" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>468</v>
       </c>
@@ -18320,7 +18321,7 @@
       </c>
       <c r="K470" s="1"/>
     </row>
-    <row r="471" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>469</v>
       </c>
@@ -18348,7 +18349,7 @@
       </c>
       <c r="K471" s="1"/>
     </row>
-    <row r="472" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>470</v>
       </c>
@@ -18376,7 +18377,7 @@
       </c>
       <c r="K472" s="1"/>
     </row>
-    <row r="473" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>471</v>
       </c>
@@ -18404,7 +18405,7 @@
       </c>
       <c r="K473" s="1"/>
     </row>
-    <row r="474" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>472</v>
       </c>
@@ -18432,7 +18433,7 @@
       </c>
       <c r="K474" s="1"/>
     </row>
-    <row r="475" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>473</v>
       </c>
@@ -18460,7 +18461,7 @@
       </c>
       <c r="K475" s="1"/>
     </row>
-    <row r="476" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>474</v>
       </c>
@@ -18488,7 +18489,7 @@
       </c>
       <c r="K476" s="1"/>
     </row>
-    <row r="477" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>475</v>
       </c>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>476</v>
       </c>
@@ -18544,7 +18545,7 @@
       </c>
       <c r="K478" s="1"/>
     </row>
-    <row r="479" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>477</v>
       </c>
@@ -18572,7 +18573,7 @@
       </c>
       <c r="K479" s="1"/>
     </row>
-    <row r="480" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>478</v>
       </c>
@@ -18600,7 +18601,7 @@
       </c>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>479</v>
       </c>
@@ -18628,7 +18629,7 @@
       </c>
       <c r="K481" s="1"/>
     </row>
-    <row r="482" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>480</v>
       </c>
@@ -18656,7 +18657,7 @@
       </c>
       <c r="K482" s="1"/>
     </row>
-    <row r="483" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>481</v>
       </c>
@@ -18684,7 +18685,7 @@
       </c>
       <c r="K483" s="1"/>
     </row>
-    <row r="484" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>482</v>
       </c>
@@ -18712,7 +18713,7 @@
       </c>
       <c r="K484" s="1"/>
     </row>
-    <row r="485" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>483</v>
       </c>
@@ -18740,7 +18741,7 @@
       </c>
       <c r="K485" s="1"/>
     </row>
-    <row r="486" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>484</v>
       </c>
@@ -18768,7 +18769,7 @@
       </c>
       <c r="K486" s="1"/>
     </row>
-    <row r="487" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
@@ -18796,7 +18797,7 @@
       </c>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>486</v>
       </c>
@@ -18824,7 +18825,7 @@
       </c>
       <c r="K488" s="1"/>
     </row>
-    <row r="489" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>487</v>
       </c>
@@ -18852,7 +18853,7 @@
       </c>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>488</v>
       </c>
@@ -18880,7 +18881,7 @@
       </c>
       <c r="K490" s="1"/>
     </row>
-    <row r="491" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>489</v>
       </c>
@@ -18908,7 +18909,7 @@
       </c>
       <c r="K491" s="1"/>
     </row>
-    <row r="492" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>490</v>
       </c>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="K492" s="1"/>
     </row>
-    <row r="493" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>491</v>
       </c>
@@ -18964,7 +18965,7 @@
       </c>
       <c r="K493" s="1"/>
     </row>
-    <row r="494" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>492</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>494</v>
       </c>
@@ -19052,7 +19053,7 @@
       </c>
       <c r="K496" s="1"/>
     </row>
-    <row r="497" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>495</v>
       </c>
@@ -19080,7 +19081,7 @@
       </c>
       <c r="K497" s="1"/>
     </row>
-    <row r="498" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>496</v>
       </c>
@@ -19108,7 +19109,7 @@
       </c>
       <c r="K498" s="1"/>
     </row>
-    <row r="499" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>497</v>
       </c>
@@ -19136,7 +19137,7 @@
       </c>
       <c r="K499" s="1"/>
     </row>
-    <row r="500" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>501</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
@@ -19292,7 +19293,7 @@
       </c>
       <c r="K504" s="1"/>
     </row>
-    <row r="505" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
@@ -19320,7 +19321,7 @@
       </c>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>504</v>
       </c>
@@ -19348,7 +19349,7 @@
       </c>
       <c r="K506" s="1"/>
     </row>
-    <row r="507" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
@@ -19376,7 +19377,7 @@
       </c>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
@@ -19404,7 +19405,7 @@
       </c>
       <c r="K508" s="1"/>
     </row>
-    <row r="509" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
@@ -19432,7 +19433,7 @@
       </c>
       <c r="K509" s="1"/>
     </row>
-    <row r="510" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
@@ -19460,7 +19461,7 @@
       </c>
       <c r="K510" s="1"/>
     </row>
-    <row r="511" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
@@ -19488,7 +19489,7 @@
       </c>
       <c r="K511" s="1"/>
     </row>
-    <row r="512" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
@@ -19516,7 +19517,7 @@
       </c>
       <c r="K512" s="1"/>
     </row>
-    <row r="513" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
@@ -19544,7 +19545,7 @@
       </c>
       <c r="K513" s="1"/>
     </row>
-    <row r="514" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
@@ -19572,7 +19573,7 @@
       </c>
       <c r="K514" s="1"/>
     </row>
-    <row r="515" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
@@ -19600,7 +19601,7 @@
       </c>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
@@ -19628,7 +19629,7 @@
       </c>
       <c r="K516" s="1"/>
     </row>
-    <row r="517" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
@@ -19684,7 +19685,7 @@
       </c>
       <c r="K518" s="1"/>
     </row>
-    <row r="519" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
@@ -19712,7 +19713,7 @@
       </c>
       <c r="K519" s="1"/>
     </row>
-    <row r="520" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>518</v>
       </c>
@@ -19740,7 +19741,7 @@
       </c>
       <c r="K520" s="1"/>
     </row>
-    <row r="521" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>519</v>
       </c>
@@ -19768,7 +19769,7 @@
       </c>
       <c r="K521" s="1"/>
     </row>
-    <row r="522" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
@@ -19796,7 +19797,7 @@
       </c>
       <c r="K522" s="1"/>
     </row>
-    <row r="523" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>521</v>
       </c>
@@ -19824,7 +19825,7 @@
       </c>
       <c r="K523" s="1"/>
     </row>
-    <row r="524" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>522</v>
       </c>
@@ -19852,7 +19853,7 @@
       </c>
       <c r="K524" s="1"/>
     </row>
-    <row r="525" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
@@ -19880,7 +19881,7 @@
       </c>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>524</v>
       </c>
@@ -19908,7 +19909,7 @@
       </c>
       <c r="K526" s="1"/>
     </row>
-    <row r="527" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
@@ -19936,7 +19937,7 @@
       </c>
       <c r="K527" s="1"/>
     </row>
-    <row r="528" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>526</v>
       </c>
@@ -19964,7 +19965,7 @@
       </c>
       <c r="K528" s="1"/>
     </row>
-    <row r="529" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>527</v>
       </c>
@@ -19992,7 +19993,7 @@
       </c>
       <c r="K529" s="1"/>
     </row>
-    <row r="530" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>528</v>
       </c>
@@ -20020,7 +20021,7 @@
       </c>
       <c r="K530" s="1"/>
     </row>
-    <row r="531" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>529</v>
       </c>
@@ -20048,7 +20049,7 @@
       </c>
       <c r="K531" s="1"/>
     </row>
-    <row r="532" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>530</v>
       </c>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="K532" s="1"/>
     </row>
-    <row r="533" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>531</v>
       </c>
@@ -20104,7 +20105,7 @@
       </c>
       <c r="K533" s="1"/>
     </row>
-    <row r="534" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>532</v>
       </c>
@@ -20132,7 +20133,7 @@
       </c>
       <c r="K534" s="1"/>
     </row>
-    <row r="535" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>533</v>
       </c>
@@ -20160,7 +20161,7 @@
       </c>
       <c r="K535" s="1"/>
     </row>
-    <row r="536" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>534</v>
       </c>
@@ -20188,7 +20189,7 @@
       </c>
       <c r="K536" s="1"/>
     </row>
-    <row r="537" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>535</v>
       </c>
@@ -20216,7 +20217,7 @@
       </c>
       <c r="K537" s="1"/>
     </row>
-    <row r="538" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>536</v>
       </c>
@@ -20244,7 +20245,7 @@
       </c>
       <c r="K538" s="1"/>
     </row>
-    <row r="539" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>537</v>
       </c>
@@ -20272,7 +20273,7 @@
       </c>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>538</v>
       </c>
@@ -20300,7 +20301,7 @@
       </c>
       <c r="K540" s="1"/>
     </row>
-    <row r="541" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
@@ -20328,7 +20329,7 @@
       </c>
       <c r="K541" s="1"/>
     </row>
-    <row r="542" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>540</v>
       </c>
@@ -20356,7 +20357,7 @@
       </c>
       <c r="K542" s="1"/>
     </row>
-    <row r="543" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>541</v>
       </c>
@@ -20384,7 +20385,7 @@
       </c>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>542</v>
       </c>
@@ -20412,7 +20413,7 @@
       </c>
       <c r="K544" s="1"/>
     </row>
-    <row r="545" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>543</v>
       </c>
@@ -20442,7 +20443,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>544</v>
       </c>
@@ -20472,7 +20473,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>545</v>
       </c>
@@ -20502,7 +20503,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>546</v>
       </c>
@@ -20532,7 +20533,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>547</v>
       </c>
@@ -20562,7 +20563,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>548</v>
       </c>
@@ -20596,7 +20597,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
@@ -20630,7 +20631,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>550</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>551</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>552</v>
       </c>
@@ -20726,7 +20727,7 @@
       </c>
       <c r="K554" s="1"/>
     </row>
-    <row r="555" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>553</v>
       </c>
@@ -20754,7 +20755,7 @@
       </c>
       <c r="K555" s="1"/>
     </row>
-    <row r="556" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>554</v>
       </c>
@@ -20782,7 +20783,7 @@
       </c>
       <c r="K556" s="1"/>
     </row>
-    <row r="557" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>555</v>
       </c>
@@ -20810,7 +20811,7 @@
       </c>
       <c r="K557" s="1"/>
     </row>
-    <row r="558" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>556</v>
       </c>
@@ -20838,7 +20839,7 @@
       </c>
       <c r="K558" s="1"/>
     </row>
-    <row r="559" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>557</v>
       </c>
@@ -20866,7 +20867,7 @@
       </c>
       <c r="K559" s="1"/>
     </row>
-    <row r="560" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>558</v>
       </c>
@@ -20894,7 +20895,7 @@
       </c>
       <c r="K560" s="1"/>
     </row>
-    <row r="561" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>559</v>
       </c>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="K561" s="1"/>
     </row>
-    <row r="562" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>560</v>
       </c>
@@ -20950,7 +20951,7 @@
       </c>
       <c r="K562" s="1"/>
     </row>
-    <row r="563" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>561</v>
       </c>
@@ -20978,7 +20979,7 @@
       </c>
       <c r="K563" s="1"/>
     </row>
-    <row r="564" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>562</v>
       </c>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="K564" s="1"/>
     </row>
-    <row r="565" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>563</v>
       </c>
@@ -21034,7 +21035,7 @@
       </c>
       <c r="K565" s="1"/>
     </row>
-    <row r="566" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>564</v>
       </c>
@@ -21062,7 +21063,7 @@
       </c>
       <c r="K566" s="1"/>
     </row>
-    <row r="567" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>565</v>
       </c>
@@ -21090,7 +21091,7 @@
       </c>
       <c r="K567" s="1"/>
     </row>
-    <row r="568" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>566</v>
       </c>
@@ -21118,7 +21119,7 @@
       </c>
       <c r="K568" s="1"/>
     </row>
-    <row r="569" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>567</v>
       </c>
@@ -21146,7 +21147,7 @@
       </c>
       <c r="K569" s="1"/>
     </row>
-    <row r="570" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>568</v>
       </c>
@@ -21174,7 +21175,7 @@
       </c>
       <c r="K570" s="1"/>
     </row>
-    <row r="571" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>569</v>
       </c>
@@ -21202,7 +21203,7 @@
       </c>
       <c r="K571" s="1"/>
     </row>
-    <row r="572" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>570</v>
       </c>
@@ -21230,7 +21231,7 @@
       </c>
       <c r="K572" s="1"/>
     </row>
-    <row r="573" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>571</v>
       </c>
@@ -21258,7 +21259,7 @@
       </c>
       <c r="K573" s="1"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>572</v>
       </c>
@@ -21286,7 +21287,7 @@
       </c>
       <c r="K574" s="1"/>
     </row>
-    <row r="575" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>573</v>
       </c>
@@ -21314,7 +21315,7 @@
       </c>
       <c r="K575" s="1"/>
     </row>
-    <row r="576" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>574</v>
       </c>
@@ -21342,7 +21343,7 @@
       </c>
       <c r="K576" s="1"/>
     </row>
-    <row r="577" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>575</v>
       </c>
@@ -21370,7 +21371,7 @@
       </c>
       <c r="K577" s="1"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>576</v>
       </c>
@@ -21398,7 +21399,7 @@
       </c>
       <c r="K578" s="1"/>
     </row>
-    <row r="579" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>577</v>
       </c>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="K579" s="1"/>
     </row>
-    <row r="580" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>578</v>
       </c>
@@ -21454,7 +21455,7 @@
       </c>
       <c r="K580" s="1"/>
     </row>
-    <row r="581" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>579</v>
       </c>
@@ -21482,7 +21483,7 @@
       </c>
       <c r="K581" s="1"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>580</v>
       </c>
@@ -21510,7 +21511,7 @@
       </c>
       <c r="K582" s="1"/>
     </row>
-    <row r="583" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>581</v>
       </c>
@@ -21538,7 +21539,7 @@
       </c>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>582</v>
       </c>
@@ -21566,7 +21567,7 @@
       </c>
       <c r="K584" s="1"/>
     </row>
-    <row r="585" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>583</v>
       </c>
@@ -21594,7 +21595,7 @@
       </c>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>584</v>
       </c>
@@ -21622,7 +21623,7 @@
       </c>
       <c r="K586" s="1"/>
     </row>
-    <row r="587" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>585</v>
       </c>
@@ -21650,7 +21651,7 @@
       </c>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>586</v>
       </c>
@@ -21678,7 +21679,7 @@
       </c>
       <c r="K588" s="1"/>
     </row>
-    <row r="589" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>587</v>
       </c>
@@ -21706,7 +21707,7 @@
       </c>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>588</v>
       </c>
@@ -21734,7 +21735,7 @@
       </c>
       <c r="K590" s="1"/>
     </row>
-    <row r="591" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>589</v>
       </c>
@@ -21762,7 +21763,7 @@
       </c>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>590</v>
       </c>
@@ -21790,7 +21791,7 @@
       </c>
       <c r="K592" s="1"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>591</v>
       </c>
@@ -21818,7 +21819,7 @@
       </c>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>592</v>
       </c>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="K594" s="1"/>
     </row>
-    <row r="595" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>593</v>
       </c>
@@ -21874,7 +21875,7 @@
       </c>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>594</v>
       </c>
@@ -21902,7 +21903,7 @@
       </c>
       <c r="K596" s="1"/>
     </row>
-    <row r="597" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>595</v>
       </c>
@@ -21930,7 +21931,7 @@
       </c>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>596</v>
       </c>
@@ -21958,7 +21959,7 @@
       </c>
       <c r="K598" s="1"/>
     </row>
-    <row r="599" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>597</v>
       </c>
@@ -21986,7 +21987,7 @@
       </c>
       <c r="K599" s="1"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>598</v>
       </c>
@@ -22014,7 +22015,7 @@
       </c>
       <c r="K600" s="1"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>599</v>
       </c>
@@ -22042,7 +22043,7 @@
       </c>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>600</v>
       </c>
@@ -22070,7 +22071,7 @@
       </c>
       <c r="K602" s="1"/>
     </row>
-    <row r="603" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>601</v>
       </c>
@@ -22098,7 +22099,7 @@
       </c>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>602</v>
       </c>
@@ -22126,7 +22127,7 @@
       </c>
       <c r="K604" s="1"/>
     </row>
-    <row r="605" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>603</v>
       </c>
@@ -22154,7 +22155,7 @@
       </c>
       <c r="K605" s="1"/>
     </row>
-    <row r="606" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>604</v>
       </c>
@@ -22184,7 +22185,7 @@
       </c>
       <c r="K606" s="1"/>
     </row>
-    <row r="607" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>605</v>
       </c>
@@ -22214,7 +22215,7 @@
       </c>
       <c r="K607" s="1"/>
     </row>
-    <row r="608" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>606</v>
       </c>
@@ -22242,7 +22243,7 @@
       </c>
       <c r="K608" s="1"/>
     </row>
-    <row r="609" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>607</v>
       </c>
@@ -22270,7 +22271,7 @@
       </c>
       <c r="K609" s="1"/>
     </row>
-    <row r="610" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>608</v>
       </c>
@@ -22298,7 +22299,7 @@
       </c>
       <c r="K610" s="1"/>
     </row>
-    <row r="611" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>609</v>
       </c>
@@ -22328,7 +22329,7 @@
       </c>
       <c r="K611" s="1"/>
     </row>
-    <row r="612" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>610</v>
       </c>
@@ -22356,7 +22357,7 @@
       </c>
       <c r="K612" s="1"/>
     </row>
-    <row r="613" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>611</v>
       </c>
@@ -22384,7 +22385,7 @@
       </c>
       <c r="K613" s="1"/>
     </row>
-    <row r="614" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>612</v>
       </c>
@@ -22412,7 +22413,7 @@
       </c>
       <c r="K614" s="1"/>
     </row>
-    <row r="615" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>613</v>
       </c>
@@ -22440,7 +22441,7 @@
       </c>
       <c r="K615" s="1"/>
     </row>
-    <row r="616" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>614</v>
       </c>
@@ -22468,7 +22469,7 @@
       </c>
       <c r="K616" s="1"/>
     </row>
-    <row r="617" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>615</v>
       </c>
@@ -22496,7 +22497,7 @@
       </c>
       <c r="K617" s="1"/>
     </row>
-    <row r="618" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>616</v>
       </c>
@@ -22524,7 +22525,7 @@
       </c>
       <c r="K618" s="1"/>
     </row>
-    <row r="619" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>617</v>
       </c>
@@ -22552,7 +22553,7 @@
       </c>
       <c r="K619" s="1"/>
     </row>
-    <row r="620" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>618</v>
       </c>
@@ -22580,7 +22581,7 @@
       </c>
       <c r="K620" s="1"/>
     </row>
-    <row r="621" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>619</v>
       </c>
@@ -22608,7 +22609,7 @@
       </c>
       <c r="K621" s="1"/>
     </row>
-    <row r="622" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>620</v>
       </c>
@@ -22636,7 +22637,7 @@
       </c>
       <c r="K622" s="1"/>
     </row>
-    <row r="623" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>621</v>
       </c>
@@ -22664,7 +22665,7 @@
       </c>
       <c r="K623" s="1"/>
     </row>
-    <row r="624" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>622</v>
       </c>
@@ -22692,7 +22693,7 @@
       </c>
       <c r="K624" s="1"/>
     </row>
-    <row r="625" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>623</v>
       </c>
@@ -22720,7 +22721,7 @@
       </c>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>624</v>
       </c>
@@ -22748,7 +22749,7 @@
       </c>
       <c r="K626" s="1"/>
     </row>
-    <row r="627" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>625</v>
       </c>
@@ -22776,7 +22777,7 @@
       </c>
       <c r="K627" s="1"/>
     </row>
-    <row r="628" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>626</v>
       </c>
@@ -22804,7 +22805,7 @@
       </c>
       <c r="K628" s="1"/>
     </row>
-    <row r="629" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>627</v>
       </c>
@@ -22832,7 +22833,7 @@
       </c>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>628</v>
       </c>
@@ -22860,7 +22861,7 @@
       </c>
       <c r="K630" s="1"/>
     </row>
-    <row r="631" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>629</v>
       </c>
@@ -22888,7 +22889,7 @@
       </c>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>630</v>
       </c>
@@ -22916,7 +22917,7 @@
       </c>
       <c r="K632" s="1"/>
     </row>
-    <row r="633" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>631</v>
       </c>
@@ -22944,7 +22945,7 @@
       </c>
       <c r="K633" s="1"/>
     </row>
-    <row r="634" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>632</v>
       </c>
@@ -22972,7 +22973,7 @@
       </c>
       <c r="K634" s="1"/>
     </row>
-    <row r="635" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>633</v>
       </c>
@@ -23000,7 +23001,7 @@
       </c>
       <c r="K635" s="1"/>
     </row>
-    <row r="636" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>634</v>
       </c>
@@ -23028,7 +23029,7 @@
       </c>
       <c r="K636" s="1"/>
     </row>
-    <row r="637" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>635</v>
       </c>
@@ -23056,7 +23057,7 @@
       </c>
       <c r="K637" s="1"/>
     </row>
-    <row r="638" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>636</v>
       </c>
@@ -23084,7 +23085,7 @@
       </c>
       <c r="K638" s="1"/>
     </row>
-    <row r="639" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>637</v>
       </c>
@@ -23112,7 +23113,7 @@
       </c>
       <c r="K639" s="1"/>
     </row>
-    <row r="640" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>638</v>
       </c>
@@ -23140,7 +23141,7 @@
       </c>
       <c r="K640" s="1"/>
     </row>
-    <row r="641" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>639</v>
       </c>
@@ -23168,7 +23169,7 @@
       </c>
       <c r="K641" s="1"/>
     </row>
-    <row r="642" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>640</v>
       </c>
@@ -23196,7 +23197,7 @@
       </c>
       <c r="K642" s="1"/>
     </row>
-    <row r="643" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>641</v>
       </c>
@@ -23224,7 +23225,7 @@
       </c>
       <c r="K643" s="1"/>
     </row>
-    <row r="644" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>642</v>
       </c>
@@ -23252,7 +23253,7 @@
       </c>
       <c r="K644" s="1"/>
     </row>
-    <row r="645" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>643</v>
       </c>
@@ -23280,7 +23281,7 @@
       </c>
       <c r="K645" s="1"/>
     </row>
-    <row r="646" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>644</v>
       </c>
@@ -23308,7 +23309,7 @@
       </c>
       <c r="K646" s="1"/>
     </row>
-    <row r="647" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>645</v>
       </c>
@@ -23336,7 +23337,7 @@
       </c>
       <c r="K647" s="1"/>
     </row>
-    <row r="648" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>646</v>
       </c>
@@ -23364,7 +23365,7 @@
       </c>
       <c r="K648" s="1"/>
     </row>
-    <row r="649" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>647</v>
       </c>
@@ -23392,7 +23393,7 @@
       </c>
       <c r="K649" s="1"/>
     </row>
-    <row r="650" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>648</v>
       </c>
@@ -23420,7 +23421,7 @@
       </c>
       <c r="K650" s="1"/>
     </row>
-    <row r="651" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>649</v>
       </c>
@@ -23448,7 +23449,7 @@
       </c>
       <c r="K651" s="1"/>
     </row>
-    <row r="652" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>650</v>
       </c>
@@ -23476,7 +23477,7 @@
       </c>
       <c r="K652" s="1"/>
     </row>
-    <row r="653" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>651</v>
       </c>
@@ -23504,7 +23505,7 @@
       </c>
       <c r="K653" s="1"/>
     </row>
-    <row r="654" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>652</v>
       </c>
@@ -23532,7 +23533,7 @@
       </c>
       <c r="K654" s="1"/>
     </row>
-    <row r="655" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>653</v>
       </c>
@@ -23560,7 +23561,7 @@
       </c>
       <c r="K655" s="1"/>
     </row>
-    <row r="656" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>654</v>
       </c>
@@ -23588,7 +23589,7 @@
       </c>
       <c r="K656" s="1"/>
     </row>
-    <row r="657" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>655</v>
       </c>
@@ -23616,7 +23617,7 @@
       </c>
       <c r="K657" s="1"/>
     </row>
-    <row r="658" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>656</v>
       </c>
@@ -23644,7 +23645,7 @@
       </c>
       <c r="K658" s="1"/>
     </row>
-    <row r="659" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>657</v>
       </c>
@@ -23672,7 +23673,7 @@
       </c>
       <c r="K659" s="1"/>
     </row>
-    <row r="660" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>658</v>
       </c>
@@ -23700,7 +23701,7 @@
       </c>
       <c r="K660" s="1"/>
     </row>
-    <row r="661" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>659</v>
       </c>
@@ -23728,7 +23729,7 @@
       </c>
       <c r="K661" s="1"/>
     </row>
-    <row r="662" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>660</v>
       </c>
@@ -23756,7 +23757,7 @@
       </c>
       <c r="K662" s="1"/>
     </row>
-    <row r="663" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>661</v>
       </c>
@@ -23784,7 +23785,7 @@
       </c>
       <c r="K663" s="1"/>
     </row>
-    <row r="664" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>662</v>
       </c>
@@ -23812,7 +23813,7 @@
       </c>
       <c r="K664" s="1"/>
     </row>
-    <row r="665" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>663</v>
       </c>
@@ -23840,7 +23841,7 @@
       </c>
       <c r="K665" s="1"/>
     </row>
-    <row r="666" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>664</v>
       </c>
@@ -23868,7 +23869,7 @@
       </c>
       <c r="K666" s="1"/>
     </row>
-    <row r="667" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>665</v>
       </c>
@@ -23896,7 +23897,7 @@
       </c>
       <c r="K667" s="1"/>
     </row>
-    <row r="668" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>666</v>
       </c>
@@ -23924,7 +23925,7 @@
       </c>
       <c r="K668" s="1"/>
     </row>
-    <row r="669" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>667</v>
       </c>
@@ -23952,7 +23953,7 @@
       </c>
       <c r="K669" s="1"/>
     </row>
-    <row r="670" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>668</v>
       </c>
@@ -23980,7 +23981,7 @@
       </c>
       <c r="K670" s="1"/>
     </row>
-    <row r="671" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>669</v>
       </c>
@@ -24008,7 +24009,7 @@
       </c>
       <c r="K671" s="1"/>
     </row>
-    <row r="672" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>670</v>
       </c>
@@ -24036,7 +24037,7 @@
       </c>
       <c r="K672" s="1"/>
     </row>
-    <row r="673" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>671</v>
       </c>
@@ -24064,7 +24065,7 @@
       </c>
       <c r="K673" s="1"/>
     </row>
-    <row r="674" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>672</v>
       </c>
@@ -24092,7 +24093,7 @@
       </c>
       <c r="K674" s="1"/>
     </row>
-    <row r="675" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>673</v>
       </c>
@@ -24120,7 +24121,7 @@
       </c>
       <c r="K675" s="1"/>
     </row>
-    <row r="676" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>674</v>
       </c>
@@ -24148,7 +24149,7 @@
       </c>
       <c r="K676" s="1"/>
     </row>
-    <row r="677" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>675</v>
       </c>
@@ -24176,7 +24177,7 @@
       </c>
       <c r="K677" s="1"/>
     </row>
-    <row r="678" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>676</v>
       </c>
@@ -24204,7 +24205,7 @@
       </c>
       <c r="K678" s="1"/>
     </row>
-    <row r="679" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>677</v>
       </c>
@@ -24232,7 +24233,7 @@
       </c>
       <c r="K679" s="1"/>
     </row>
-    <row r="680" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>678</v>
       </c>
@@ -24260,7 +24261,7 @@
       </c>
       <c r="K680" s="1"/>
     </row>
-    <row r="681" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>679</v>
       </c>
@@ -24288,7 +24289,7 @@
       </c>
       <c r="K681" s="1"/>
     </row>
-    <row r="682" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>680</v>
       </c>
@@ -24316,7 +24317,7 @@
       </c>
       <c r="K682" s="1"/>
     </row>
-    <row r="683" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>681</v>
       </c>
@@ -24344,7 +24345,7 @@
       </c>
       <c r="K683" s="1"/>
     </row>
-    <row r="684" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>682</v>
       </c>
@@ -24372,7 +24373,7 @@
       </c>
       <c r="K684" s="1"/>
     </row>
-    <row r="685" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>683</v>
       </c>
@@ -24400,7 +24401,7 @@
       </c>
       <c r="K685" s="1"/>
     </row>
-    <row r="686" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>684</v>
       </c>
@@ -24428,7 +24429,7 @@
       </c>
       <c r="K686" s="1"/>
     </row>
-    <row r="687" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>685</v>
       </c>
@@ -24456,7 +24457,7 @@
       </c>
       <c r="K687" s="1"/>
     </row>
-    <row r="688" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>686</v>
       </c>
@@ -24484,7 +24485,7 @@
       </c>
       <c r="K688" s="1"/>
     </row>
-    <row r="689" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>687</v>
       </c>
@@ -24542,7 +24543,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>689</v>
       </c>
@@ -24570,7 +24571,7 @@
       </c>
       <c r="K691" s="1"/>
     </row>
-    <row r="692" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>690</v>
       </c>
@@ -24598,7 +24599,7 @@
       </c>
       <c r="K692" s="1"/>
     </row>
-    <row r="693" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>691</v>
       </c>
@@ -24626,7 +24627,7 @@
       </c>
       <c r="K693" s="1"/>
     </row>
-    <row r="694" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>692</v>
       </c>
@@ -24654,7 +24655,7 @@
       </c>
       <c r="K694" s="1"/>
     </row>
-    <row r="695" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>693</v>
       </c>
@@ -24682,7 +24683,7 @@
       </c>
       <c r="K695" s="1"/>
     </row>
-    <row r="696" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>694</v>
       </c>
@@ -24710,7 +24711,7 @@
       </c>
       <c r="K696" s="1"/>
     </row>
-    <row r="697" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>695</v>
       </c>
@@ -24738,7 +24739,7 @@
       </c>
       <c r="K697" s="1"/>
     </row>
-    <row r="698" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>696</v>
       </c>
@@ -24766,7 +24767,7 @@
       </c>
       <c r="K698" s="1"/>
     </row>
-    <row r="699" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>697</v>
       </c>
@@ -24794,7 +24795,7 @@
       </c>
       <c r="K699" s="1"/>
     </row>
-    <row r="700" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>698</v>
       </c>
@@ -24822,7 +24823,7 @@
       </c>
       <c r="K700" s="1"/>
     </row>
-    <row r="701" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>699</v>
       </c>
@@ -24850,7 +24851,7 @@
       </c>
       <c r="K701" s="1"/>
     </row>
-    <row r="702" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>700</v>
       </c>
@@ -24878,7 +24879,7 @@
       </c>
       <c r="K702" s="1"/>
     </row>
-    <row r="703" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>701</v>
       </c>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="K703" s="1"/>
     </row>
-    <row r="704" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>702</v>
       </c>
@@ -24934,7 +24935,7 @@
       </c>
       <c r="K704" s="1"/>
     </row>
-    <row r="705" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>703</v>
       </c>
@@ -24962,7 +24963,7 @@
       </c>
       <c r="K705" s="1"/>
     </row>
-    <row r="706" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>704</v>
       </c>
@@ -24990,7 +24991,7 @@
       </c>
       <c r="K706" s="1"/>
     </row>
-    <row r="707" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>705</v>
       </c>
@@ -25018,7 +25019,7 @@
       </c>
       <c r="K707" s="1"/>
     </row>
-    <row r="708" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>706</v>
       </c>
@@ -25046,7 +25047,7 @@
       </c>
       <c r="K708" s="1"/>
     </row>
-    <row r="709" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>707</v>
       </c>
@@ -25074,7 +25075,7 @@
       </c>
       <c r="K709" s="1"/>
     </row>
-    <row r="710" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>708</v>
       </c>
@@ -25102,7 +25103,7 @@
       </c>
       <c r="K710" s="1"/>
     </row>
-    <row r="711" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>709</v>
       </c>
@@ -25130,7 +25131,7 @@
       </c>
       <c r="K711" s="1"/>
     </row>
-    <row r="712" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>710</v>
       </c>
@@ -25158,7 +25159,7 @@
       </c>
       <c r="K712" s="1"/>
     </row>
-    <row r="713" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>711</v>
       </c>
@@ -25186,7 +25187,7 @@
       </c>
       <c r="K713" s="1"/>
     </row>
-    <row r="714" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>712</v>
       </c>
@@ -25214,7 +25215,7 @@
       </c>
       <c r="K714" s="1"/>
     </row>
-    <row r="715" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>713</v>
       </c>
@@ -25242,7 +25243,7 @@
       </c>
       <c r="K715" s="1"/>
     </row>
-    <row r="716" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>714</v>
       </c>
@@ -25270,7 +25271,7 @@
       </c>
       <c r="K716" s="1"/>
     </row>
-    <row r="717" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>715</v>
       </c>
@@ -25298,7 +25299,7 @@
       </c>
       <c r="K717" s="1"/>
     </row>
-    <row r="718" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>716</v>
       </c>
@@ -25326,7 +25327,7 @@
       </c>
       <c r="K718" s="1"/>
     </row>
-    <row r="719" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>717</v>
       </c>
@@ -25354,7 +25355,7 @@
       </c>
       <c r="K719" s="1"/>
     </row>
-    <row r="720" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>718</v>
       </c>
@@ -25382,7 +25383,7 @@
       </c>
       <c r="K720" s="1"/>
     </row>
-    <row r="721" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>719</v>
       </c>
@@ -25710,7 +25711,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="8" t="s">
         <v>730</v>
       </c>
@@ -25742,7 +25743,7 @@
       </c>
       <c r="K732" s="8"/>
     </row>
-    <row r="733" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>731</v>
       </c>
@@ -25774,7 +25775,7 @@
       </c>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5" t="s">
         <v>732</v>
       </c>
@@ -25806,7 +25807,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="8" t="s">
         <v>733</v>
       </c>
@@ -25840,7 +25841,7 @@
       </c>
       <c r="K735" s="8"/>
     </row>
-    <row r="736" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="8" t="s">
         <v>734</v>
       </c>
@@ -25872,7 +25873,7 @@
       </c>
       <c r="K736" s="8"/>
     </row>
-    <row r="737" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="6" t="s">
         <v>735</v>
       </c>
@@ -25904,7 +25905,7 @@
       </c>
       <c r="K737" s="6"/>
     </row>
-    <row r="738" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="8" t="s">
         <v>736</v>
       </c>
@@ -25936,7 +25937,7 @@
       </c>
       <c r="K738" s="8"/>
     </row>
-    <row r="739" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>737</v>
       </c>
@@ -25964,7 +25965,7 @@
       </c>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>738</v>
       </c>
@@ -25992,7 +25993,7 @@
       </c>
       <c r="K740" s="1"/>
     </row>
-    <row r="741" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>739</v>
       </c>
@@ -26020,7 +26021,7 @@
       </c>
       <c r="K741" s="1"/>
     </row>
-    <row r="742" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>740</v>
       </c>
@@ -26048,7 +26049,7 @@
       </c>
       <c r="K742" s="1"/>
     </row>
-    <row r="743" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>741</v>
       </c>
@@ -26076,7 +26077,7 @@
       </c>
       <c r="K743" s="1"/>
     </row>
-    <row r="744" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>742</v>
       </c>
@@ -26104,7 +26105,7 @@
       </c>
       <c r="K744" s="1"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>743</v>
       </c>
@@ -26138,7 +26139,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>744</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>745</v>
       </c>
@@ -26200,7 +26201,7 @@
       </c>
       <c r="K747" s="1"/>
     </row>
-    <row r="748" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>746</v>
       </c>
@@ -26228,7 +26229,7 @@
       </c>
       <c r="K748" s="1"/>
     </row>
-    <row r="749" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>747</v>
       </c>
@@ -26256,7 +26257,7 @@
       </c>
       <c r="K749" s="1"/>
     </row>
-    <row r="750" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>748</v>
       </c>
@@ -26284,7 +26285,7 @@
       </c>
       <c r="K750" s="1"/>
     </row>
-    <row r="751" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>749</v>
       </c>
@@ -26312,7 +26313,7 @@
       </c>
       <c r="K751" s="1"/>
     </row>
-    <row r="752" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>750</v>
       </c>
@@ -26340,7 +26341,7 @@
       </c>
       <c r="K752" s="1"/>
     </row>
-    <row r="753" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>751</v>
       </c>
@@ -26368,7 +26369,7 @@
       </c>
       <c r="K753" s="1"/>
     </row>
-    <row r="754" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>752</v>
       </c>
@@ -26396,7 +26397,7 @@
       </c>
       <c r="K754" s="1"/>
     </row>
-    <row r="755" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>753</v>
       </c>
@@ -26424,7 +26425,7 @@
       </c>
       <c r="K755" s="1"/>
     </row>
-    <row r="756" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>754</v>
       </c>
@@ -26452,7 +26453,7 @@
       </c>
       <c r="K756" s="1"/>
     </row>
-    <row r="757" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>755</v>
       </c>
@@ -26480,7 +26481,7 @@
       </c>
       <c r="K757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>756</v>
       </c>
@@ -26512,7 +26513,7 @@
       </c>
       <c r="K758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>757</v>
       </c>
@@ -26544,7 +26545,7 @@
       </c>
       <c r="K759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>758</v>
       </c>
@@ -26576,7 +26577,7 @@
       </c>
       <c r="K760" s="1"/>
     </row>
-    <row r="761" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>759</v>
       </c>
@@ -26604,7 +26605,7 @@
       </c>
       <c r="K761" s="1"/>
     </row>
-    <row r="762" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>760</v>
       </c>
@@ -26632,7 +26633,7 @@
       </c>
       <c r="K762" s="1"/>
     </row>
-    <row r="763" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>761</v>
       </c>
@@ -26660,7 +26661,7 @@
       </c>
       <c r="K763" s="1"/>
     </row>
-    <row r="764" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>762</v>
       </c>
@@ -26688,7 +26689,7 @@
       </c>
       <c r="K764" s="1"/>
     </row>
-    <row r="765" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>763</v>
       </c>
@@ -26716,7 +26717,7 @@
       </c>
       <c r="K765" s="1"/>
     </row>
-    <row r="766" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>764</v>
       </c>
@@ -26744,7 +26745,7 @@
       </c>
       <c r="K766" s="1"/>
     </row>
-    <row r="767" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>765</v>
       </c>
@@ -26772,7 +26773,7 @@
       </c>
       <c r="K767" s="1"/>
     </row>
-    <row r="768" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>766</v>
       </c>
@@ -26805,6 +26806,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K768">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
